--- a/Data Files/Website/DataFiles_CRM/DataExcel_KYCVideo/Data_CRM_HasNotBeenValidated.xlsx
+++ b/Data Files/Website/DataFiles_CRM/DataExcel_KYCVideo/Data_CRM_HasNotBeenValidated.xlsx
@@ -24,10 +24,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -38,9 +38,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -54,11 +60,96 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -70,113 +161,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,13 +191,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -209,19 +329,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -233,145 +359,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -395,16 +395,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -425,25 +425,27 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -474,11 +476,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -487,15 +487,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -505,130 +505,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -961,7 +961,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A6" sqref="A6:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1"/>
@@ -976,7 +976,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>10001546</v>
+        <v>10001873</v>
       </c>
     </row>
   </sheetData>
